--- a/Design/DataTable/AttackRoutePatterns.xlsx
+++ b/Design/DataTable/AttackRoutePatterns.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25950FB-0BC3-499E-AD58-504AC9D4430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514B309-8F5B-486C-94B6-75AA3EAA078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
